--- a/data/unchecked/manual_collect/china/guangdong/guangdongCaseStatistics_20200316.xlsx
+++ b/data/unchecked/manual_collect/china/guangdong/guangdongCaseStatistics_20200316.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22430"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chenx\Desktop\test\COVID-19\data\unchecked\manual_collect\china\guangdong\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{968C5F15-1501-4C43-97F2-4E960319D877}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7860"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14595" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="新数据表" sheetId="1" r:id="rId1"/>
@@ -399,12 +400,22 @@
     <definedName name="自贡市">中国各省市区县数据!$C$2043:$C$2048</definedName>
     <definedName name="遵义市">中国各省市区县数据!$C$2220:$C$2233</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9453" uniqueCount="3302">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9461" uniqueCount="3303">
   <si>
     <t>序号</t>
   </si>
@@ -10317,12 +10328,15 @@
   </si>
   <si>
     <t>http://wsjkw.gd.gov.cn/xxgzbdfk/yqtb/content/post_2932233.html</t>
+  </si>
+  <si>
+    <t>区县级</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="176" formatCode="yyyy/m/d\ h:mm:ss;@"/>
     <numFmt numFmtId="177" formatCode="yyyy/m/d\ hh:mm"/>
@@ -10754,58 +10768,58 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AN33"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:AN34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K30" sqref="K30"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K25" sqref="K25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultColWidth="10.87890625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="5.875" style="12" customWidth="1"/>
-    <col min="2" max="2" width="8.5" style="12" customWidth="1"/>
-    <col min="3" max="3" width="18.375" style="13" customWidth="1"/>
-    <col min="4" max="4" width="16.625" style="12" customWidth="1"/>
-    <col min="5" max="5" width="5.125" style="12" customWidth="1"/>
-    <col min="6" max="6" width="7.75" style="12" customWidth="1"/>
-    <col min="7" max="7" width="8.375" style="12" customWidth="1"/>
-    <col min="8" max="8" width="7.625" style="12" customWidth="1"/>
-    <col min="9" max="9" width="5.25" style="12" customWidth="1"/>
+    <col min="1" max="1" width="5.87890625" style="12" customWidth="1"/>
+    <col min="2" max="2" width="8.46875" style="12" customWidth="1"/>
+    <col min="3" max="3" width="18.3515625" style="13" customWidth="1"/>
+    <col min="4" max="4" width="16.64453125" style="12" customWidth="1"/>
+    <col min="5" max="5" width="5.1171875" style="12" customWidth="1"/>
+    <col min="6" max="6" width="7.76171875" style="12" customWidth="1"/>
+    <col min="7" max="7" width="8.3515625" style="12" customWidth="1"/>
+    <col min="8" max="8" width="7.64453125" style="12" customWidth="1"/>
+    <col min="9" max="9" width="5.234375" style="12" customWidth="1"/>
     <col min="10" max="10" width="5" style="12" customWidth="1"/>
-    <col min="11" max="11" width="5.75" style="12" customWidth="1"/>
-    <col min="12" max="12" width="6.125" style="12" customWidth="1"/>
-    <col min="13" max="13" width="5.875" style="12" customWidth="1"/>
-    <col min="14" max="14" width="6.625" style="12" customWidth="1"/>
-    <col min="15" max="15" width="5.875" style="12" customWidth="1"/>
-    <col min="16" max="16" width="5.375" style="12" customWidth="1"/>
-    <col min="17" max="17" width="3.625" style="12" customWidth="1"/>
-    <col min="18" max="18" width="5.25" style="12" customWidth="1"/>
+    <col min="11" max="11" width="5.76171875" style="12" customWidth="1"/>
+    <col min="12" max="12" width="6.1171875" style="12" customWidth="1"/>
+    <col min="13" max="13" width="5.87890625" style="12" customWidth="1"/>
+    <col min="14" max="14" width="6.64453125" style="12" customWidth="1"/>
+    <col min="15" max="15" width="5.87890625" style="12" customWidth="1"/>
+    <col min="16" max="16" width="5.3515625" style="12" customWidth="1"/>
+    <col min="17" max="17" width="3.64453125" style="12" customWidth="1"/>
+    <col min="18" max="18" width="5.234375" style="12" customWidth="1"/>
     <col min="19" max="19" width="7" style="12" customWidth="1"/>
-    <col min="20" max="20" width="19.25" style="13" customWidth="1"/>
-    <col min="21" max="21" width="4.125" style="12" customWidth="1"/>
-    <col min="22" max="22" width="10.625" style="12" customWidth="1"/>
-    <col min="23" max="23" width="6.25" style="12" customWidth="1"/>
-    <col min="24" max="24" width="6.75" style="12" customWidth="1"/>
+    <col min="20" max="20" width="19.234375" style="13" customWidth="1"/>
+    <col min="21" max="21" width="4.1171875" style="12" customWidth="1"/>
+    <col min="22" max="22" width="10.64453125" style="12" customWidth="1"/>
+    <col min="23" max="23" width="6.234375" style="12" customWidth="1"/>
+    <col min="24" max="24" width="6.76171875" style="12" customWidth="1"/>
     <col min="25" max="25" width="8" style="12" customWidth="1"/>
-    <col min="26" max="26" width="19.25" style="12" customWidth="1"/>
-    <col min="27" max="27" width="4.625" style="12" customWidth="1"/>
-    <col min="28" max="28" width="7.625" style="12" customWidth="1"/>
-    <col min="29" max="29" width="7.375" style="12" customWidth="1"/>
-    <col min="30" max="30" width="17.125" style="12" customWidth="1"/>
-    <col min="31" max="31" width="4.5" style="12" customWidth="1"/>
-    <col min="32" max="32" width="9.25" style="12" customWidth="1"/>
-    <col min="33" max="33" width="10.625" style="12" customWidth="1"/>
-    <col min="34" max="34" width="8.875" style="12" customWidth="1"/>
-    <col min="35" max="36" width="31.875" style="12" customWidth="1"/>
-    <col min="37" max="37" width="21.875" style="12" customWidth="1"/>
-    <col min="38" max="38" width="24.5" style="12" customWidth="1"/>
+    <col min="26" max="26" width="19.234375" style="12" customWidth="1"/>
+    <col min="27" max="27" width="4.64453125" style="12" customWidth="1"/>
+    <col min="28" max="28" width="7.64453125" style="12" customWidth="1"/>
+    <col min="29" max="29" width="7.3515625" style="12" customWidth="1"/>
+    <col min="30" max="30" width="17.1171875" style="12" customWidth="1"/>
+    <col min="31" max="31" width="4.46875" style="12" customWidth="1"/>
+    <col min="32" max="32" width="9.234375" style="12" customWidth="1"/>
+    <col min="33" max="33" width="10.64453125" style="12" customWidth="1"/>
+    <col min="34" max="34" width="8.87890625" style="12" customWidth="1"/>
+    <col min="35" max="36" width="31.87890625" style="12" customWidth="1"/>
+    <col min="37" max="37" width="21.87890625" style="12" customWidth="1"/>
+    <col min="38" max="38" width="24.46875" style="12" customWidth="1"/>
     <col min="39" max="39" width="31" style="12" customWidth="1"/>
-    <col min="40" max="40" width="5.125" style="12" customWidth="1"/>
-    <col min="41" max="16384" width="10.875" style="12"/>
+    <col min="40" max="40" width="5.1171875" style="12" customWidth="1"/>
+    <col min="41" max="16384" width="10.87890625" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:40" s="11" customFormat="1" ht="15">
+    <row r="1" spans="1:40" s="11" customFormat="1" ht="15.75">
       <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
@@ -10927,7 +10941,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:40">
+    <row r="2" spans="1:40" ht="15.75">
       <c r="A2" s="16">
         <v>1</v>
       </c>
@@ -10987,7 +11001,7 @@
       <c r="AI2" s="13"/>
       <c r="AJ2" s="13"/>
     </row>
-    <row r="3" spans="1:40">
+    <row r="3" spans="1:40" ht="15.75">
       <c r="A3" s="12">
         <v>2</v>
       </c>
@@ -11041,7 +11055,7 @@
       <c r="AI3" s="13"/>
       <c r="AJ3" s="13"/>
     </row>
-    <row r="4" spans="1:40">
+    <row r="4" spans="1:40" ht="15.75">
       <c r="A4" s="12">
         <v>3</v>
       </c>
@@ -11094,7 +11108,7 @@
       <c r="AD4" s="13"/>
       <c r="AI4" s="13"/>
     </row>
-    <row r="5" spans="1:40">
+    <row r="5" spans="1:40" ht="15.75">
       <c r="A5" s="12">
         <v>4</v>
       </c>
@@ -11145,7 +11159,7 @@
       <c r="AD5" s="13"/>
       <c r="AI5" s="13"/>
     </row>
-    <row r="6" spans="1:40">
+    <row r="6" spans="1:40" ht="15.75">
       <c r="A6" s="12">
         <v>5</v>
       </c>
@@ -11198,7 +11212,7 @@
       <c r="AD6" s="13"/>
       <c r="AI6" s="13"/>
     </row>
-    <row r="7" spans="1:40">
+    <row r="7" spans="1:40" ht="15.75">
       <c r="A7" s="12">
         <v>6</v>
       </c>
@@ -11248,7 +11262,7 @@
       <c r="AD7" s="13"/>
       <c r="AI7" s="13"/>
     </row>
-    <row r="8" spans="1:40">
+    <row r="8" spans="1:40" ht="15.75">
       <c r="A8" s="12">
         <v>7</v>
       </c>
@@ -11298,7 +11312,7 @@
       <c r="AD8" s="13"/>
       <c r="AI8" s="13"/>
     </row>
-    <row r="9" spans="1:40">
+    <row r="9" spans="1:40" ht="15.75">
       <c r="A9" s="12">
         <v>8</v>
       </c>
@@ -11348,7 +11362,7 @@
       <c r="AD9" s="13"/>
       <c r="AI9" s="13"/>
     </row>
-    <row r="10" spans="1:40">
+    <row r="10" spans="1:40" ht="15.75">
       <c r="A10" s="12">
         <v>9</v>
       </c>
@@ -11398,7 +11412,7 @@
       <c r="AD10" s="13"/>
       <c r="AI10" s="13"/>
     </row>
-    <row r="11" spans="1:40">
+    <row r="11" spans="1:40" ht="15.75">
       <c r="A11" s="12">
         <v>10</v>
       </c>
@@ -11449,7 +11463,7 @@
       <c r="AI11" s="13"/>
       <c r="AJ11" s="13"/>
     </row>
-    <row r="12" spans="1:40">
+    <row r="12" spans="1:40" ht="15.75">
       <c r="A12" s="12">
         <v>11</v>
       </c>
@@ -11503,7 +11517,7 @@
       <c r="AD12" s="13"/>
       <c r="AI12" s="13"/>
     </row>
-    <row r="13" spans="1:40">
+    <row r="13" spans="1:40" ht="15.75">
       <c r="A13" s="12">
         <v>12</v>
       </c>
@@ -11553,7 +11567,7 @@
       <c r="AD13" s="13"/>
       <c r="AI13" s="13"/>
     </row>
-    <row r="14" spans="1:40">
+    <row r="14" spans="1:40" ht="15.75">
       <c r="A14" s="12">
         <v>13</v>
       </c>
@@ -11603,7 +11617,7 @@
       <c r="AD14" s="13"/>
       <c r="AI14" s="13"/>
     </row>
-    <row r="15" spans="1:40">
+    <row r="15" spans="1:40" ht="15.75">
       <c r="A15" s="12">
         <v>14</v>
       </c>
@@ -11653,7 +11667,7 @@
       <c r="AD15" s="13"/>
       <c r="AI15" s="13"/>
     </row>
-    <row r="16" spans="1:40">
+    <row r="16" spans="1:40" ht="15.75">
       <c r="A16" s="12">
         <v>15</v>
       </c>
@@ -11703,7 +11717,7 @@
       <c r="AD16" s="13"/>
       <c r="AI16" s="13"/>
     </row>
-    <row r="17" spans="1:36">
+    <row r="17" spans="1:36" ht="15.75">
       <c r="A17" s="12">
         <v>16</v>
       </c>
@@ -11756,7 +11770,7 @@
       <c r="AD17" s="13"/>
       <c r="AI17" s="13"/>
     </row>
-    <row r="18" spans="1:36">
+    <row r="18" spans="1:36" ht="15.75">
       <c r="A18" s="12">
         <v>17</v>
       </c>
@@ -11806,7 +11820,7 @@
       <c r="AD18" s="13"/>
       <c r="AI18" s="13"/>
     </row>
-    <row r="19" spans="1:36">
+    <row r="19" spans="1:36" ht="15.75">
       <c r="A19" s="12">
         <v>18</v>
       </c>
@@ -11856,7 +11870,7 @@
       <c r="AD19" s="13"/>
       <c r="AI19" s="13"/>
     </row>
-    <row r="20" spans="1:36">
+    <row r="20" spans="1:36" ht="15.75">
       <c r="A20" s="12">
         <v>19</v>
       </c>
@@ -11907,7 +11921,7 @@
       <c r="AI20" s="13"/>
       <c r="AJ20" s="13"/>
     </row>
-    <row r="21" spans="1:36">
+    <row r="21" spans="1:36" ht="15.75">
       <c r="A21" s="12">
         <v>20</v>
       </c>
@@ -11957,12 +11971,12 @@
       <c r="AD21" s="13"/>
       <c r="AI21" s="13"/>
     </row>
-    <row r="22" spans="1:36">
+    <row r="22" spans="1:36" ht="15.75">
       <c r="A22" s="12">
         <v>21</v>
       </c>
       <c r="B22" s="16" t="s">
-        <v>40</v>
+        <v>3302</v>
       </c>
       <c r="C22" s="17">
         <v>43906</v>
@@ -12010,12 +12024,12 @@
       <c r="AD22" s="13"/>
       <c r="AI22" s="13"/>
     </row>
-    <row r="23" spans="1:36">
+    <row r="23" spans="1:36" ht="15.75">
       <c r="A23" s="12">
         <v>22</v>
       </c>
       <c r="B23" s="16" t="s">
-        <v>40</v>
+        <v>3302</v>
       </c>
       <c r="C23" s="17">
         <v>43906</v>
@@ -12063,12 +12077,12 @@
       <c r="AD23" s="13"/>
       <c r="AI23" s="13"/>
     </row>
-    <row r="24" spans="1:36">
+    <row r="24" spans="1:36" ht="15.75">
       <c r="A24" s="12">
         <v>23</v>
       </c>
       <c r="B24" s="16" t="s">
-        <v>40</v>
+        <v>3302</v>
       </c>
       <c r="C24" s="17">
         <v>43906</v>
@@ -12113,12 +12127,12 @@
       <c r="AD24" s="13"/>
       <c r="AI24" s="13"/>
     </row>
-    <row r="25" spans="1:36">
+    <row r="25" spans="1:36" ht="15.75">
       <c r="A25" s="12">
         <v>23</v>
       </c>
       <c r="B25" s="16" t="s">
-        <v>40</v>
+        <v>3302</v>
       </c>
       <c r="C25" s="17">
         <v>43906</v>
@@ -12166,12 +12180,12 @@
       <c r="AD25" s="13"/>
       <c r="AI25" s="13"/>
     </row>
-    <row r="26" spans="1:36">
+    <row r="26" spans="1:36" ht="15.75">
       <c r="A26" s="12">
         <v>23</v>
       </c>
       <c r="B26" s="16" t="s">
-        <v>40</v>
+        <v>3302</v>
       </c>
       <c r="C26" s="17">
         <v>43906</v>
@@ -12216,12 +12230,12 @@
       <c r="AD26" s="13"/>
       <c r="AI26" s="13"/>
     </row>
-    <row r="27" spans="1:36">
+    <row r="27" spans="1:36" ht="15.75">
       <c r="A27" s="12">
         <v>23</v>
       </c>
       <c r="B27" s="16" t="s">
-        <v>40</v>
+        <v>3302</v>
       </c>
       <c r="C27" s="17">
         <v>43906</v>
@@ -12268,7 +12282,7 @@
     </row>
     <row r="28" spans="1:36" ht="17.25" customHeight="1">
       <c r="A28" s="12">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B28" s="16" t="s">
         <v>40</v>
@@ -12286,10 +12300,10 @@
         <v>42</v>
       </c>
       <c r="G28" s="12" t="s">
-        <v>66</v>
-      </c>
-      <c r="K28" s="12">
-        <v>1</v>
+        <v>3294</v>
+      </c>
+      <c r="M28" s="12">
+        <v>14</v>
       </c>
       <c r="S28" s="12" t="s">
         <v>44</v>
@@ -12313,9 +12327,9 @@
       <c r="AD28" s="13"/>
       <c r="AI28" s="13"/>
     </row>
-    <row r="29" spans="1:36">
+    <row r="29" spans="1:36" ht="17.25" customHeight="1">
       <c r="A29" s="12">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B29" s="16" t="s">
         <v>40</v>
@@ -12335,8 +12349,8 @@
       <c r="G29" s="12" t="s">
         <v>66</v>
       </c>
-      <c r="O29" s="12">
-        <v>3</v>
+      <c r="K29" s="12">
+        <v>1</v>
       </c>
       <c r="S29" s="12" t="s">
         <v>44</v>
@@ -12360,12 +12374,12 @@
       <c r="AD29" s="13"/>
       <c r="AI29" s="13"/>
     </row>
-    <row r="30" spans="1:36">
+    <row r="30" spans="1:36" ht="15.75">
       <c r="A30" s="12">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B30" s="16" t="s">
-        <v>67</v>
+        <v>40</v>
       </c>
       <c r="C30" s="17">
         <v>43906</v>
@@ -12379,22 +12393,11 @@
       <c r="F30" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="I30" s="12">
+      <c r="G30" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="O30" s="12">
         <v>3</v>
-      </c>
-      <c r="K30" s="12">
-        <v>1</v>
-      </c>
-      <c r="M30" s="12">
-        <f>SUM(M2:M29)</f>
-        <v>1364</v>
-      </c>
-      <c r="O30" s="12">
-        <f>SUM(O2:O29)</f>
-        <v>1307</v>
-      </c>
-      <c r="P30" s="12">
-        <v>8</v>
       </c>
       <c r="S30" s="12" t="s">
         <v>44</v>
@@ -12418,15 +12421,66 @@
       <c r="AD30" s="13"/>
       <c r="AI30" s="13"/>
     </row>
-    <row r="31" spans="1:36">
-      <c r="C31" s="17"/>
-      <c r="D31" s="17"/>
+    <row r="31" spans="1:36" ht="15.75">
+      <c r="A31" s="12">
+        <v>27</v>
+      </c>
+      <c r="B31" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="C31" s="17">
+        <v>43906</v>
+      </c>
+      <c r="D31" s="17">
+        <v>43907</v>
+      </c>
+      <c r="E31" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="F31" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="I31" s="12">
+        <v>3</v>
+      </c>
+      <c r="K31" s="12">
+        <v>1</v>
+      </c>
+      <c r="M31" s="12">
+        <v>1364</v>
+      </c>
+      <c r="O31" s="12">
+        <f>SUM(O2:O30)</f>
+        <v>1307</v>
+      </c>
+      <c r="P31" s="12">
+        <v>8</v>
+      </c>
+      <c r="S31" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="T31" s="13">
+        <v>43907.381944444445</v>
+      </c>
+      <c r="V31" s="19" t="s">
+        <v>3301</v>
+      </c>
       <c r="W31" s="13"/>
-      <c r="Z31" s="13"/>
+      <c r="Z31" s="13">
+        <v>43907.392361111109</v>
+      </c>
+      <c r="AA31" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="AB31" s="12" t="s">
+        <v>46</v>
+      </c>
       <c r="AD31" s="13"/>
       <c r="AI31" s="13"/>
     </row>
     <row r="32" spans="1:36">
+      <c r="C32" s="17"/>
+      <c r="D32" s="17"/>
       <c r="W32" s="13"/>
       <c r="Z32" s="13"/>
       <c r="AD32" s="13"/>
@@ -12438,28 +12492,34 @@
       <c r="AD33" s="13"/>
       <c r="AI33" s="13"/>
     </row>
+    <row r="34" spans="23:35">
+      <c r="W34" s="13"/>
+      <c r="Z34" s="13"/>
+      <c r="AD34" s="13"/>
+      <c r="AI34" s="13"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <dataValidations count="7">
-    <dataValidation type="whole" operator="notEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O30:O1048576 K12:R21 M2:R11 J2 K2:K11 I3:J21 I22:N1048576 P22:R1048576">
+    <dataValidation type="whole" operator="notEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O31:O1048576 K12:R21 M2:R11 J2 K2:K11 I3:J21 P22:R1048576 I22:N1048576" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>0</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G21 G28:G1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G21 G29:G1048576" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>INDIRECT($F2)</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2:H21 H28:H1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2:H21 H28:H1048576" xr:uid="{00000000-0002-0000-0000-000002000000}">
       <formula1>INDIRECT($G2)</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" error="输入一个列表中的值" sqref="B2:B1048576">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" error="输入一个列表中的值" sqref="B2:B1048576" xr:uid="{00000000-0002-0000-0000-000003000000}">
       <formula1>"国家级,省级,城市级,区县级"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AM2:AM1048576 AG2:AG1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AG2:AG1048576 AM2:AM1048576" xr:uid="{00000000-0002-0000-0000-000004000000}">
       <formula1>"核查通过,核查未通过"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AK2:AK1048576 AA2:AA1048576 AE2:AE1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AE2:AE1048576 AA2:AA1048576 AK2:AK1048576" xr:uid="{00000000-0002-0000-0000-000005000000}">
       <formula1>"手动,自动"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AC2:AC1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AC2:AC1048576" xr:uid="{00000000-0002-0000-0000-000006000000}">
       <formula1>"未核查,已核查"</formula1>
     </dataValidation>
   </dataValidations>
@@ -12468,7 +12528,7 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showErrorMessage="1" error="输入一个列表中的值">
+        <x14:dataValidation type="list" allowBlank="1" showErrorMessage="1" error="输入一个列表中的值" xr:uid="{00000000-0002-0000-0000-000007000000}">
           <x14:formula1>
             <xm:f>中国各省市区县数据!$E$2:$E$36</xm:f>
           </x14:formula1>
@@ -12481,7 +12541,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AN2908"/>
   <sheetViews>
     <sheetView topLeftCell="W1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
@@ -12489,10 +12549,10 @@
       <selection pane="bottomLeft" activeCell="AN1" sqref="AN1:AN16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="18" customWidth="1"/>
-    <col min="5" max="5" width="13.5" customWidth="1"/>
+    <col min="5" max="5" width="13.46875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:40">

--- a/data/unchecked/manual_collect/china/guangdong/guangdongCaseStatistics_20200316.xlsx
+++ b/data/unchecked/manual_collect/china/guangdong/guangdongCaseStatistics_20200316.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chenx\Desktop\test\COVID-19\data\unchecked\manual_collect\china\guangdong\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{968C5F15-1501-4C43-97F2-4E960319D877}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40E238F9-0BBC-4C2D-847E-24689D847C08}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14595" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -10772,7 +10772,7 @@
   <dimension ref="A1:AN34"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K25" sqref="K25"/>
+      <selection activeCell="J29" sqref="J29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.87890625" defaultRowHeight="15"/>
@@ -12301,6 +12301,9 @@
       </c>
       <c r="G28" s="12" t="s">
         <v>3294</v>
+      </c>
+      <c r="I28" s="12">
+        <v>3</v>
       </c>
       <c r="M28" s="12">
         <v>14</v>
